--- a/SRE/入库出库管理系统/demo.xlsx
+++ b/SRE/入库出库管理系统/demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DevOps-SRE\SRE\入库出库管理系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2386FA7-69F5-49A2-92CE-40CC60E9719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7692DA7-D034-4707-84D3-F3092BC7E771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
   <si>
     <t>24B0256</t>
   </si>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>扫码出货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料检验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,18 +752,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>110</v>
@@ -768,31 +772,37 @@
         <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -802,32 +812,38 @@
       <c r="C2" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.37500000000001</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="5">
+      <c r="I2" s="5">
         <v>1.1666666666666701</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="5">
+      <c r="K2" s="5">
         <v>1.2083333333333399</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="5">
+      <c r="M2" s="5">
         <v>1.37500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -837,32 +853,38 @@
       <c r="C3" s="5">
         <v>0.875</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.4166666666666801</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5">
+      <c r="I3" s="5">
         <v>1.2083333333333399</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="5">
+      <c r="K3" s="5">
         <v>1.25000000000001</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="5">
+      <c r="M3" s="5">
         <v>1.4166666666666801</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -872,32 +894,38 @@
       <c r="C4" s="5">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.4583333333333399</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <v>0.875</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="5">
+      <c r="I4" s="5">
         <v>1.25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="5">
+      <c r="K4" s="5">
         <v>1.2916666666666701</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="5">
+      <c r="M4" s="5">
         <v>1.4583333333333399</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -907,32 +935,38 @@
       <c r="C5" s="5">
         <v>0.95833333333333304</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.50000000000001</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>0.91666666666666696</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5">
+      <c r="I5" s="5">
         <v>1.2916666666666701</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="5">
+      <c r="K5" s="5">
         <v>1.3333333333333399</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="5">
+      <c r="M5" s="5">
         <v>1.50000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -942,32 +976,38 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.5416666666666801</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>0.95833333333333304</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="5">
+      <c r="I6" s="5">
         <v>1.3333333333333399</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="5">
+      <c r="K6" s="5">
         <v>1.37500000000001</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>1.5416666666666801</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -977,32 +1017,38 @@
       <c r="C7" s="5">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.5833333333333399</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="5">
+      <c r="I7" s="5">
         <v>1.375</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="5">
+      <c r="K7" s="5">
         <v>1.4166666666666701</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
         <v>1.5833333333333399</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1012,32 +1058,38 @@
       <c r="C8" s="5">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.62500000000001</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>1.0416666666666701</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="5">
+      <c r="I8" s="5">
         <v>1.4166666666666701</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K8" s="5">
         <v>1.4583333333333399</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M8" s="5">
         <v>1.62500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1047,32 +1099,38 @@
       <c r="C9" s="5">
         <v>1.125</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.6666666666666801</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="5">
         <v>1.0833333333333299</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="5">
+      <c r="I9" s="5">
         <v>1.4583333333333399</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="5">
+      <c r="K9" s="5">
         <v>1.50000000000001</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="5">
+      <c r="M9" s="5">
         <v>1.6666666666666801</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1082,32 +1140,38 @@
       <c r="C10" s="5">
         <v>1.1666666666666701</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.7083333333333399</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>1.125</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="5">
+      <c r="I10" s="5">
         <v>1.5</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="5">
+      <c r="K10" s="5">
         <v>1.5416666666666701</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="5">
+      <c r="M10" s="5">
         <v>1.7083333333333399</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1117,32 +1181,38 @@
       <c r="C11" s="5">
         <v>1.2083333333333299</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.75000000000001</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G11" s="5">
         <v>1.1666666666666701</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="5">
+      <c r="I11" s="5">
         <v>1.5416666666666701</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="5">
+      <c r="K11" s="5">
         <v>1.5833333333333399</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="5">
+      <c r="M11" s="5">
         <v>1.75000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1152,32 +1222,38 @@
       <c r="C12" s="5">
         <v>1.25</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.7916666666666801</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="5">
         <v>1.2083333333333299</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="5">
+      <c r="I12" s="5">
         <v>1.5833333333333399</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="5">
+      <c r="K12" s="5">
         <v>1.62500000000001</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="5">
+      <c r="M12" s="5">
         <v>1.7916666666666801</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1187,32 +1263,38 @@
       <c r="C13" s="5">
         <v>1.2916666666666701</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.8333333333333399</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="5">
         <v>1.25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="5">
+      <c r="I13" s="5">
         <v>1.625</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="5">
+      <c r="K13" s="5">
         <v>1.6666666666666701</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="5">
+      <c r="M13" s="5">
         <v>1.8333333333333399</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1222,32 +1304,38 @@
       <c r="C14" s="5">
         <v>1.3333333333333299</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.87500000000001</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="5">
         <v>1.2916666666666701</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="5">
+      <c r="I14" s="5">
         <v>1.6666666666666701</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K14" s="5">
         <v>1.7083333333333399</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="5">
         <v>1.87500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1257,32 +1345,38 @@
       <c r="C15" s="5">
         <v>1.375</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.9166666666666801</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>1.3333333333333299</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="5">
+      <c r="I15" s="5">
         <v>1.7083333333333399</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="5">
+      <c r="K15" s="5">
         <v>1.75000000000001</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="5">
+      <c r="M15" s="5">
         <v>1.9166666666666801</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1292,32 +1386,38 @@
       <c r="C16" s="5">
         <v>1.4166666666666701</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.9583333333333399</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="5">
         <v>1.375</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="5">
+      <c r="I16" s="5">
         <v>1.75</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="5">
+      <c r="K16" s="5">
         <v>1.7916666666666701</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="5">
+      <c r="M16" s="5">
         <v>1.9583333333333399</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1327,32 +1427,38 @@
       <c r="C17" s="5">
         <v>1.4583333333333299</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.0000000000000102</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="5">
         <v>1.4166666666666701</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="5">
+      <c r="I17" s="5">
         <v>1.7916666666666701</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="5">
+      <c r="K17" s="5">
         <v>1.8333333333333399</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="5">
+      <c r="M17" s="5">
         <v>2.0000000000000102</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1362,32 +1468,38 @@
       <c r="C18" s="5">
         <v>1.5</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.0416666666666798</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="5">
+      <c r="G18" s="5">
         <v>1.4583333333333299</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="5">
+      <c r="I18" s="5">
         <v>1.8333333333333399</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="5">
+      <c r="K18" s="5">
         <v>1.87500000000001</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="5">
+      <c r="M18" s="5">
         <v>2.0416666666666798</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1397,32 +1509,38 @@
       <c r="C19" s="5">
         <v>1.5416666666666701</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.0833333333333401</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="5">
+      <c r="G19" s="5">
         <v>1.5</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="5">
+      <c r="I19" s="5">
         <v>1.875</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="5">
+      <c r="K19" s="5">
         <v>1.9166666666666701</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="5">
+      <c r="M19" s="5">
         <v>2.0833333333333401</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1432,32 +1550,38 @@
       <c r="C20" s="5">
         <v>1.5833333333333299</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2.1250000000000102</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="5">
+      <c r="G20" s="5">
         <v>1.5416666666666701</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="5">
+      <c r="I20" s="5">
         <v>1.9166666666666701</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="5">
         <v>1.9583333333333399</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="5">
+      <c r="M20" s="5">
         <v>2.1250000000000102</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1467,32 +1591,38 @@
       <c r="C21" s="5">
         <v>1.625</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.1666666666666798</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="5">
         <v>1.5833333333333299</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="5">
+      <c r="I21" s="5">
         <v>1.9583333333333399</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="5">
+      <c r="K21" s="5">
         <v>2.0000000000000102</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="5">
+      <c r="M21" s="5">
         <v>2.1666666666666798</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1502,66 +1632,90 @@
       <c r="C22" s="5">
         <v>1.6666666666666701</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.2083333333333401</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5">
+      <c r="G22" s="5">
         <v>1.625</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="5">
+      <c r="I22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="5">
+      <c r="K22" s="5">
         <v>2.0416666666666701</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="5">
+      <c r="M22" s="5">
         <v>2.2083333333333401</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
